--- a/t.xlsx
+++ b/t.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stas\python\ПреобразованиеДляСКД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stas\python\ПреобразованиеДляСКД\ПреобразованиеДляСКД\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058260A6-4CE7-4158-8A6C-60C70FB358D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1C8C5-E2D5-484F-877E-73B889CB28A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{75475008-39C5-4F9C-9C0E-E707FCBDB9B2}"/>
+    <workbookView xWindow="3156" yWindow="2328" windowWidth="13236" windowHeight="6888" xr2:uid="{75475008-39C5-4F9C-9C0E-E707FCBDB9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Путь к данным</t>
   </si>
   <si>
-    <t xml:space="preserve">Результат </t>
-  </si>
-  <si>
     <t>разница2</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>Вопрос</t>
+  </si>
+  <si>
+    <t>"Результат '"</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,14 +484,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" s="1"/>
@@ -507,10 +507,10 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2"/>
       <c r="H2" s="2"/>
@@ -519,14 +519,14 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1</v>
